--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Google\szkola\zse\projekt zespołowy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D2E882EE-8350-4B48-A50A-E063AFC43F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E05DEE85-AE3B-4445-A349-EEF47DC1D815}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426797E-AB1F-4F4D-B3A7-F11095546182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="-120" windowWidth="27735" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -166,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,17 +618,17 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="126.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +641,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -651,7 +650,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" s="5">
         <f>COUNTA(C4:C157)</f>
         <v>25</v>
@@ -659,84 +658,84 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -748,7 +747,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -762,7 +761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
@@ -776,7 +775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
@@ -790,7 +789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
@@ -804,12 +803,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
@@ -818,20 +817,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
@@ -839,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -847,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
@@ -855,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
@@ -863,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
@@ -871,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
@@ -879,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
@@ -887,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
@@ -895,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
@@ -915,7 +914,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>39</v>
       </c>
@@ -926,7 +925,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>40</v>
       </c>
@@ -937,7 +936,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>41</v>
       </c>
@@ -948,16 +947,16 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
     </row>
@@ -976,12 +975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,19 +1113,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47137F85-7E95-4E73-9DA1-AFDC962BF2FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47137F85-7E95-4E73-9DA1-AFDC962BF2FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9eb998a-6c08-4240-9aff-8e29f8caf072"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\Web\sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426797E-AB1F-4F4D-B3A7-F11095546182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B8121-328C-41E8-B672-AEE44C452334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -835,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,9 +975,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,19 +1116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1149,9 +1148,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekty\Web\sprzatando\Sprzatando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494B8121-328C-41E8-B672-AEE44C452334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BB779-D0A0-4F37-AA2C-777A306D2A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32988" yWindow="2664" windowWidth="16788" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,12 +975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,15 +1113,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1148,10 +1149,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BB779-D0A0-4F37-AA2C-777A306D2A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723AB237-C52D-40F0-B04B-FDBA1A078F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32988" yWindow="2664" windowWidth="16788" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -975,9 +975,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,19 +1116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1149,9 +1148,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723AB237-C52D-40F0-B04B-FDBA1A078F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3CF3D1-80BC-4DD4-8E05-247D916007B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -975,12 +975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,15 +1113,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1148,10 +1149,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3CF3D1-80BC-4DD4-8E05-247D916007B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5937BB1-325D-4374-8822-CE6F59C7E4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,9 +975,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,19 +1116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1149,9 +1148,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5937BB1-325D-4374-8822-CE6F59C7E4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D60E2B-AB4B-4254-ABB1-0ADE227B57CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="8">
         <v>4</v>
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
         <v>3</v>
@@ -975,12 +975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,15 +1113,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1148,10 +1149,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D60E2B-AB4B-4254-ABB1-0ADE227B57CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23084BAE-86E8-46B2-8DC0-0C929226C6EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -975,9 +975,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,19 +1116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1149,9 +1148,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekt 2 - sprzątando + admin panel.xlsx
+++ b/Projekt 2 - sprzątando + admin panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aktualne projekty\Szkoła Sprzatando\Sprzatando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23084BAE-86E8-46B2-8DC0-0C929226C6EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BF605-C111-4071-9D3F-F5D753C12158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" s="7">
         <f>COUNTIF(C:C, TRUE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="E11" s="8">
         <f>E7*100/E3</f>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -975,12 +975,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,15 +1113,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1148,10 +1149,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93A548D2-ECF0-4E52-A77F-2150500620BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC939A35-43C5-42BD-B567-14742099AD82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>